--- a/data/Marco acumulativo.xlsx
+++ b/data/Marco acumulativo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,50 +434,59 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Código IE</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Código IE</t>
+          <t>Dimensión 2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Dimensión 4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Dimensión 7</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dimensión 4</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
         <v>2</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -488,32 +497,36 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -524,28 +537,32 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>43</v>
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -554,106 +571,118 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>53</v>
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>72</v>
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>74</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>92</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>93</v>
+        <v>13</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>97</v>
+        <v>15</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -662,20 +691,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>98</v>
+        <v>19</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -686,28 +717,32 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>107</v>
+        <v>20</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>110</v>
+        <v>21</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -716,52 +751,58 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>130</v>
+        <v>23</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>132</v>
+        <v>26</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>152</v>
+        <v>27</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -776,50 +817,56 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>162</v>
+        <v>28</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>163</v>
+        <v>32</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>1A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>165</v>
+        <v>35</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -830,32 +877,36 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>166</v>
+        <v>44</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>167</v>
+        <v>45</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -866,86 +917,96 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>176</v>
+        <v>49</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>177</v>
+        <v>50</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>179</v>
+        <v>51</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>183</v>
+        <v>52</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>185</v>
+        <v>53</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -956,104 +1017,116 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>211</v>
+        <v>54</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>213</v>
+        <v>55</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>218</v>
+        <v>56</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>226</v>
+        <v>57</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>228</v>
+        <v>58</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>231</v>
+        <v>59</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1064,14 +1137,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>235</v>
+        <v>61</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1082,19 +1157,3061 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
+        <v>62</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
         <is>
           <t>2B</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2A</t>
         </is>
       </c>
     </row>

--- a/data/Marco acumulativo.xlsx
+++ b/data/Marco acumulativo.xlsx
@@ -456,7 +456,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>15</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>19</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>20</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>21</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>23</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>26</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>27</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>28</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>32</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>35</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>44</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>45</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>49</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>50</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>51</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>52</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>53</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>54</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>55</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>56</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>57</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>58</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>59</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>61</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>62</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>63</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>64</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>66</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>67</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>68</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>69</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>70</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>71</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>72</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>73</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>74</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>75</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>76</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>77</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>88</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>89</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>90</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>92</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>93</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>94</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>95</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>96</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>97</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>98</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>106</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>107</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>108</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>109</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>110</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>111</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>112</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>114</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>115</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>116</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>117</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>118</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>119</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>121</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -1936,7 +1936,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>122</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>123</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>129</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>130</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>131</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>132</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>138</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>162</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>163</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>164</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>165</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>166</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>167</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>168</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>176</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>177</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>178</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>179</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>180</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>181</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>182</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>183</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>184</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>185</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>186</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>187</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>188</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>189</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>213</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>218</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>221</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>222</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>224</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>225</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>226</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>227</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>228</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>229</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>230</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>231</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>235</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>237</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>238</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" t="n">
         <v>239</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" t="n">
         <v>240</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" t="n">
         <v>241</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" t="n">
         <v>243</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="A123" t="n">
         <v>249</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" t="n">
         <v>250</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" t="n">
         <v>251</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" t="n">
         <v>252</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -2956,7 +2956,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" t="n">
         <v>1</v>
       </c>
       <c r="B127" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="A128" t="n">
         <v>10</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="A129" t="n">
         <v>36</v>
       </c>
       <c r="B129" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" t="n">
         <v>41</v>
       </c>
       <c r="B130" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="A131" t="n">
         <v>42</v>
       </c>
       <c r="B131" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" t="n">
         <v>43</v>
       </c>
       <c r="B132" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" t="n">
         <v>46</v>
       </c>
       <c r="B133" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="A134" t="n">
         <v>48</v>
       </c>
       <c r="B134" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
+      <c r="A135" t="n">
         <v>65</v>
       </c>
       <c r="B135" t="inlineStr">
@@ -3136,7 +3136,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
+      <c r="A136" t="n">
         <v>133</v>
       </c>
       <c r="B136" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
+      <c r="A137" t="n">
         <v>148</v>
       </c>
       <c r="B137" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
+      <c r="A138" t="n">
         <v>149</v>
       </c>
       <c r="B138" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
+      <c r="A139" t="n">
         <v>150</v>
       </c>
       <c r="B139" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
+      <c r="A140" t="n">
         <v>151</v>
       </c>
       <c r="B140" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
+      <c r="A141" t="n">
         <v>152</v>
       </c>
       <c r="B141" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
+      <c r="A142" t="n">
         <v>155</v>
       </c>
       <c r="B142" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
+      <c r="A143" t="n">
         <v>161</v>
       </c>
       <c r="B143" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
+      <c r="A144" t="n">
         <v>203</v>
       </c>
       <c r="B144" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
+      <c r="A145" t="n">
         <v>206</v>
       </c>
       <c r="B145" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
+      <c r="A146" t="n">
         <v>211</v>
       </c>
       <c r="B146" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
+      <c r="A147" t="n">
         <v>214</v>
       </c>
       <c r="B147" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
+      <c r="A148" t="n">
         <v>216</v>
       </c>
       <c r="B148" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
+      <c r="A149" t="n">
         <v>217</v>
       </c>
       <c r="B149" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
+      <c r="A150" t="n">
         <v>14</v>
       </c>
       <c r="B150" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
+      <c r="A151" t="n">
         <v>16</v>
       </c>
       <c r="B151" t="inlineStr">
@@ -3456,7 +3456,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
+      <c r="A152" t="n">
         <v>17</v>
       </c>
       <c r="B152" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
+      <c r="A153" t="n">
         <v>18</v>
       </c>
       <c r="B153" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
+      <c r="A154" t="n">
         <v>22</v>
       </c>
       <c r="B154" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
+      <c r="A155" t="n">
         <v>24</v>
       </c>
       <c r="B155" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
+      <c r="A156" t="n">
         <v>25</v>
       </c>
       <c r="B156" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
+      <c r="A157" t="n">
         <v>29</v>
       </c>
       <c r="B157" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
+      <c r="A158" t="n">
         <v>30</v>
       </c>
       <c r="B158" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
+      <c r="A159" t="n">
         <v>31</v>
       </c>
       <c r="B159" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
+      <c r="A160" t="n">
         <v>33</v>
       </c>
       <c r="B160" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
+      <c r="A161" t="n">
         <v>34</v>
       </c>
       <c r="B161" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
+      <c r="A162" t="n">
         <v>38</v>
       </c>
       <c r="B162" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
+      <c r="A163" t="n">
         <v>40</v>
       </c>
       <c r="B163" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
+      <c r="A164" t="n">
         <v>79</v>
       </c>
       <c r="B164" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
+      <c r="A165" t="n">
         <v>80</v>
       </c>
       <c r="B165" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
+      <c r="A166" t="n">
         <v>82</v>
       </c>
       <c r="B166" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
+      <c r="A167" t="n">
         <v>83</v>
       </c>
       <c r="B167" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
+      <c r="A168" t="n">
         <v>99</v>
       </c>
       <c r="B168" t="inlineStr">
@@ -3796,7 +3796,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
+      <c r="A169" t="n">
         <v>100</v>
       </c>
       <c r="B169" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
+      <c r="A170" t="n">
         <v>102</v>
       </c>
       <c r="B170" t="inlineStr">
@@ -3836,7 +3836,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
+      <c r="A171" t="n">
         <v>103</v>
       </c>
       <c r="B171" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
+      <c r="A172" t="n">
         <v>128</v>
       </c>
       <c r="B172" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
+      <c r="A173" t="n">
         <v>153</v>
       </c>
       <c r="B173" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
+      <c r="A174" t="n">
         <v>169</v>
       </c>
       <c r="B174" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
+      <c r="A175" t="n">
         <v>170</v>
       </c>
       <c r="B175" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
+      <c r="A176" t="n">
         <v>171</v>
       </c>
       <c r="B176" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
+      <c r="A177" t="n">
         <v>172</v>
       </c>
       <c r="B177" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
+      <c r="A178" t="n">
         <v>173</v>
       </c>
       <c r="B178" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
+      <c r="A179" t="n">
         <v>175</v>
       </c>
       <c r="B179" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
+      <c r="A180" t="n">
         <v>204</v>
       </c>
       <c r="B180" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
+      <c r="A181" t="n">
         <v>208</v>
       </c>
       <c r="B181" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
+      <c r="A182" t="n">
         <v>209</v>
       </c>
       <c r="B182" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
+      <c r="A183" t="n">
         <v>223</v>
       </c>
       <c r="B183" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
+      <c r="A184" t="n">
         <v>233</v>
       </c>
       <c r="B184" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
+      <c r="A185" t="n">
         <v>244</v>
       </c>
       <c r="B185" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
+      <c r="A186" t="n">
         <v>247</v>
       </c>
       <c r="B186" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
+      <c r="A187" t="n">
         <v>248</v>
       </c>
       <c r="B187" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
+      <c r="A188" t="n">
         <v>259</v>
       </c>
       <c r="B188" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
+      <c r="A189" t="n">
         <v>297</v>
       </c>
       <c r="B189" t="inlineStr">

--- a/data/Marco acumulativo.xlsx
+++ b/data/Marco acumulativo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:E189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Dimensión 7</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dimensión 8</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -474,6 +479,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -494,6 +504,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -514,6 +529,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -534,6 +554,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -554,6 +579,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -574,6 +604,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -594,6 +629,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -614,6 +654,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -634,6 +679,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -654,6 +704,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -674,6 +729,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -694,6 +754,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -714,6 +779,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -734,6 +804,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -754,6 +829,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -774,6 +854,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -794,6 +879,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -814,6 +904,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -834,6 +929,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -854,6 +954,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -874,6 +979,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -894,6 +1004,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -914,6 +1029,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -934,6 +1054,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -954,6 +1079,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -974,6 +1104,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -994,6 +1129,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1014,6 +1154,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1034,6 +1179,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1054,6 +1204,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1074,6 +1229,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1094,6 +1254,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1114,6 +1279,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1134,6 +1304,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1154,6 +1329,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1174,6 +1354,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1194,6 +1379,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1214,6 +1404,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1234,6 +1429,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1254,6 +1454,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1274,6 +1479,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1294,6 +1504,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1314,6 +1529,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1334,6 +1554,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1354,6 +1579,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1374,6 +1604,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1394,6 +1629,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1414,6 +1654,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1434,6 +1679,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1454,6 +1704,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1474,6 +1729,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1494,6 +1754,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1514,6 +1779,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1534,6 +1804,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1554,6 +1829,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1574,6 +1854,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1594,6 +1879,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1614,6 +1904,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1634,6 +1929,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1654,6 +1954,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1674,6 +1979,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1694,6 +2004,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1714,6 +2029,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1734,6 +2054,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1754,6 +2079,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1774,6 +2104,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1794,6 +2129,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1814,6 +2154,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1834,6 +2179,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1854,6 +2204,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1874,6 +2229,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1894,6 +2254,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1914,6 +2279,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1934,6 +2304,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1954,6 +2329,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1974,6 +2354,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1994,6 +2379,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2014,6 +2404,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2034,6 +2429,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2054,6 +2454,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2074,6 +2479,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2094,6 +2504,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2114,6 +2529,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2134,6 +2554,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2154,6 +2579,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2174,6 +2604,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2194,6 +2629,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2214,6 +2654,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2234,6 +2679,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2254,6 +2704,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2274,6 +2729,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2294,6 +2754,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2314,6 +2779,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2334,6 +2804,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2354,6 +2829,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2374,6 +2854,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2394,6 +2879,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2414,6 +2904,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2434,6 +2929,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2454,6 +2954,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2474,6 +2979,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2494,6 +3004,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2514,6 +3029,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2534,6 +3054,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2554,6 +3079,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2574,6 +3104,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2594,6 +3129,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2614,6 +3154,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2634,6 +3179,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2654,6 +3204,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2674,6 +3229,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2694,6 +3254,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2714,6 +3279,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2734,6 +3304,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2754,6 +3329,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2774,6 +3354,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2794,6 +3379,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2814,6 +3404,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2834,6 +3429,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2854,6 +3454,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2874,6 +3479,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2894,6 +3504,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2914,6 +3529,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2934,6 +3554,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2954,6 +3579,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2974,6 +3604,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2994,6 +3629,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3014,6 +3654,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3034,6 +3679,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3054,6 +3704,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3074,6 +3729,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3094,6 +3754,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3114,6 +3779,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3134,6 +3804,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3154,6 +3829,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3174,6 +3854,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3194,6 +3879,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3214,6 +3904,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3234,6 +3929,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3254,6 +3954,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3274,6 +3979,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3294,6 +4004,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3314,6 +4029,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3334,6 +4054,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3354,6 +4079,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3374,6 +4104,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3394,6 +4129,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3414,6 +4154,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3434,6 +4179,9 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3454,6 +4202,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3474,6 +4227,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3494,6 +4252,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3514,6 +4277,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3534,6 +4302,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3554,6 +4327,9 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3574,6 +4350,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3594,6 +4375,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3614,6 +4400,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3634,6 +4423,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3654,6 +4448,9 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3674,6 +4471,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -3694,6 +4494,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3714,6 +4519,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3734,6 +4544,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3754,6 +4569,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -3774,6 +4594,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -3794,6 +4619,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3814,6 +4644,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -3834,6 +4669,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -3854,6 +4694,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3874,6 +4719,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -3894,6 +4744,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3914,6 +4769,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3934,6 +4794,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3954,6 +4819,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3974,6 +4844,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -3994,6 +4869,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4014,6 +4894,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4034,6 +4919,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4054,6 +4944,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4074,6 +4969,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4094,6 +4994,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4114,6 +5019,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4134,6 +5044,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4154,6 +5069,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4174,6 +5094,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4194,6 +5119,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4213,6 +5141,9 @@
         <is>
           <t>2A</t>
         </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Marco acumulativo.xlsx
+++ b/data/Marco acumulativo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E189"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Dimensión 8</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dimensión 5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +489,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -509,6 +519,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -534,6 +549,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -559,6 +579,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -584,6 +609,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -609,6 +639,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -634,6 +669,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -659,6 +699,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -684,6 +729,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -709,6 +759,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -734,6 +789,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -759,6 +819,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -784,6 +847,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -809,6 +877,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -834,6 +907,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -859,6 +937,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -884,6 +967,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -909,6 +997,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -934,6 +1027,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -959,6 +1057,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -984,6 +1087,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1009,6 +1117,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1034,6 +1147,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1059,6 +1175,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1084,6 +1205,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1109,6 +1235,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1134,6 +1265,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1159,6 +1295,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1184,6 +1325,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1209,6 +1355,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1234,6 +1385,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1259,6 +1415,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1284,6 +1443,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1309,6 +1473,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1334,6 +1503,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1359,6 +1531,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1384,6 +1561,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1409,6 +1591,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1434,6 +1621,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1459,6 +1651,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1484,6 +1681,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1509,6 +1711,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1534,6 +1741,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1559,6 +1771,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1584,6 +1801,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1609,6 +1831,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1634,6 +1861,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1659,6 +1891,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1684,6 +1919,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1709,6 +1949,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1734,6 +1977,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1759,6 +2007,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1784,6 +2037,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1809,6 +2067,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1834,6 +2097,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1859,6 +2127,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1884,6 +2157,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1909,6 +2187,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1934,6 +2217,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1959,6 +2247,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1984,6 +2277,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2009,6 +2307,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2034,6 +2337,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2059,6 +2367,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2084,6 +2397,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2109,6 +2427,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2134,6 +2457,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2159,6 +2485,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2184,6 +2515,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2209,6 +2545,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2234,6 +2575,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2259,6 +2603,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2284,6 +2633,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2309,6 +2663,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2334,6 +2693,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2359,6 +2721,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2384,6 +2751,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2409,6 +2781,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2434,6 +2811,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2459,6 +2841,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2484,6 +2871,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2509,6 +2901,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2534,6 +2931,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2559,6 +2961,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2584,6 +2991,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2609,6 +3021,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2634,6 +3051,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2659,6 +3081,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2684,6 +3111,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2709,6 +3141,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2734,6 +3171,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2759,6 +3201,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2784,6 +3231,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2809,6 +3261,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2834,6 +3291,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2859,6 +3321,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2884,6 +3351,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2909,6 +3381,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2934,6 +3411,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2959,6 +3441,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2984,6 +3471,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3009,6 +3501,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3034,6 +3531,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3059,6 +3561,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3084,6 +3591,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3109,6 +3621,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3134,6 +3651,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3159,6 +3681,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3184,6 +3711,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3209,6 +3741,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3234,6 +3771,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3259,6 +3801,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3284,6 +3831,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3309,6 +3861,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3334,6 +3891,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3359,6 +3921,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3384,6 +3951,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3409,6 +3981,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3434,6 +4011,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3459,6 +4041,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3484,6 +4069,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3509,6 +4099,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3534,6 +4129,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3559,6 +4157,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3584,6 +4187,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3609,6 +4217,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3634,6 +4247,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3659,6 +4277,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3684,6 +4305,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3709,6 +4333,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3734,6 +4361,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3759,6 +4391,11 @@
           <t>2B</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3784,6 +4421,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3809,6 +4451,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3834,6 +4479,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3859,6 +4509,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3884,6 +4539,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3909,6 +4569,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3934,6 +4599,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3959,6 +4629,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3984,6 +4657,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4009,6 +4685,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4034,6 +4715,9 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4059,6 +4743,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4084,6 +4773,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4109,6 +4803,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4134,6 +4833,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4159,6 +4861,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4182,6 +4889,9 @@
       <c r="E150" t="n">
         <v>0</v>
       </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4207,6 +4917,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4232,6 +4947,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -4257,6 +4977,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4282,6 +5007,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4307,6 +5037,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4330,6 +5065,9 @@
       <c r="E156" t="n">
         <v>0</v>
       </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4355,6 +5093,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4380,6 +5123,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4403,6 +5151,9 @@
       <c r="E159" t="n">
         <v>0</v>
       </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4428,6 +5179,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4451,6 +5205,9 @@
       <c r="E161" t="n">
         <v>0</v>
       </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4474,6 +5231,9 @@
       <c r="E162" t="n">
         <v>0</v>
       </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4499,6 +5259,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4524,6 +5287,11 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4549,6 +5317,11 @@
           <t>2A</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4574,6 +5347,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4599,6 +5377,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4624,6 +5407,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4649,6 +5435,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4674,6 +5463,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4699,6 +5491,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4724,6 +5519,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4749,6 +5549,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4774,6 +5579,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4799,6 +5609,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4824,6 +5639,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4849,6 +5669,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4874,6 +5699,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4899,6 +5729,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4924,6 +5757,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4949,6 +5787,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4974,6 +5817,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4999,6 +5847,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -5024,6 +5877,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -5049,6 +5907,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -5074,6 +5937,11 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -5099,6 +5967,9 @@
           <t>1A</t>
         </is>
       </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -5122,6 +5993,9 @@
       <c r="E188" t="n">
         <v>0</v>
       </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -5143,6 +6017,9 @@
         </is>
       </c>
       <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
         <v>0</v>
       </c>
     </row>
